--- a/data/trans_orig/Q5413-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q5413-Clase-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4343</v>
+        <v>4765</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01589114001246909</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07264708062239776</v>
+        <v>0.07970908083186025</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5354</v>
+        <v>5414</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01061581796677312</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05982959111516284</v>
+        <v>0.06049284499033896</v>
       </c>
     </row>
     <row r="5">
@@ -854,7 +854,7 @@
         <v>58834</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>55441</v>
+        <v>55019</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>59784</v>
@@ -863,7 +863,7 @@
         <v>0.9841088599875309</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9273529193776012</v>
+        <v>0.92029091916814</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -888,7 +888,7 @@
         <v>88543</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>84139</v>
+        <v>84079</v>
       </c>
       <c r="T6" s="5" t="n">
         <v>89493</v>
@@ -897,7 +897,7 @@
         <v>0.9893841820332269</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9401704088848351</v>
+        <v>0.9395071550096604</v>
       </c>
       <c r="W6" s="6" t="n">
         <v>1</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6438</v>
+        <v>7451</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08968519409703525</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2651921117459367</v>
+        <v>0.3069294863065523</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7070</v>
+        <v>7271</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02267153532140515</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07362368757079657</v>
+        <v>0.07571657039301362</v>
       </c>
     </row>
     <row r="13">
@@ -1271,19 +1271,19 @@
         <v>2597</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6282</v>
+        <v>7344</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03619584494031416</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01105062245230653</v>
+        <v>0.01121867637058997</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08754626914759879</v>
+        <v>0.1023487911631374</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -1305,19 +1305,19 @@
         <v>2597</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7982</v>
+        <v>7931</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02704589120141086</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008404435622037028</v>
+        <v>0.008442053621611299</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08312495560814369</v>
+        <v>0.08259065932998307</v>
       </c>
     </row>
     <row r="14">
@@ -1334,19 +1334,19 @@
         <v>69157</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>65472</v>
+        <v>64410</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>70961</v>
+        <v>70949</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9638041550596859</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9124537308524017</v>
+        <v>0.8976512088368614</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9889493775476935</v>
+        <v>0.9887813236294101</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -1355,7 +1355,7 @@
         <v>22098</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17837</v>
+        <v>16824</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>24275</v>
@@ -1364,7 +1364,7 @@
         <v>0.9103148059029648</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7348078882540632</v>
+        <v>0.6930705136934472</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1376,19 +1376,19 @@
         <v>91256</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>85343</v>
+        <v>85118</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>94250</v>
+        <v>94222</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.950282573477184</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8887155722501919</v>
+        <v>0.886371203396867</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9814596268582249</v>
+        <v>0.9811745294458517</v>
       </c>
     </row>
     <row r="15">
@@ -1480,19 +1480,19 @@
         <v>3690</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>946</v>
+        <v>879</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9201</v>
+        <v>8627</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01418970923117113</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00363563472662979</v>
+        <v>0.003379292293489392</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03538018321752794</v>
+        <v>0.03317312121571649</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5181</v>
+        <v>5668</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0135372489033814</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06041862058815313</v>
+        <v>0.06609362044687642</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1522,19 +1522,19 @@
         <v>4851</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1797</v>
+        <v>1827</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10995</v>
+        <v>11267</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01402792226208673</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005196188039082712</v>
+        <v>0.005283384081131553</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0317932319909225</v>
+        <v>0.03258040694520446</v>
       </c>
     </row>
     <row r="17">
@@ -1551,19 +1551,19 @@
         <v>7345</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3567</v>
+        <v>2966</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13533</v>
+        <v>13659</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02824345247814892</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01371499297847315</v>
+        <v>0.01140261352726902</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05203713620502393</v>
+        <v>0.0525204552932583</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7738</v>
+        <v>7816</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02588834818169769</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09024209688491566</v>
+        <v>0.09114696054802497</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -1593,19 +1593,19 @@
         <v>9565</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4722</v>
+        <v>4961</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17002</v>
+        <v>16485</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02765947032663442</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01365515607249471</v>
+        <v>0.01434649410789611</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0491630871896997</v>
+        <v>0.04766757870956695</v>
       </c>
     </row>
     <row r="18">
@@ -1622,19 +1622,19 @@
         <v>249036</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>241731</v>
+        <v>241226</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>254314</v>
+        <v>254224</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9575668382906799</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9294776094121262</v>
+        <v>0.9275372448974856</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9778604194934692</v>
+        <v>0.9775145293529186</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>85</v>
@@ -1643,19 +1643,19 @@
         <v>82371</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>76834</v>
+        <v>76558</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>84711</v>
+        <v>84704</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9605744029149209</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8960045856951402</v>
+        <v>0.8927873459524404</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9878573091678674</v>
+        <v>0.9877808654394019</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>350</v>
@@ -1664,19 +1664,19 @@
         <v>331407</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>323093</v>
+        <v>323356</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>337639</v>
+        <v>337426</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9583126074112789</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9342702585377968</v>
+        <v>0.9350313290414272</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9763306354929018</v>
+        <v>0.9757156690889178</v>
       </c>
     </row>
     <row r="19">
@@ -1781,19 +1781,19 @@
         <v>4149</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>944</v>
+        <v>1153</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9824</v>
+        <v>10460</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04311097577612621</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.009804331312597385</v>
+        <v>0.01198240169369464</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1020623735756115</v>
+        <v>0.1086802145692936</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -1802,19 +1802,19 @@
         <v>4149</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>935</v>
+        <v>973</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9801</v>
+        <v>10135</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02735009821638372</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006163538907332137</v>
+        <v>0.00641184224707945</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06460278770851542</v>
+        <v>0.06680084894121539</v>
       </c>
     </row>
     <row r="21">
@@ -1831,19 +1831,19 @@
         <v>4666</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1782</v>
+        <v>1827</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10345</v>
+        <v>9598</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08412886333865631</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03213471523132504</v>
+        <v>0.03294184840651114</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1865063719042225</v>
+        <v>0.1730496266372031</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -1852,19 +1852,19 @@
         <v>3493</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1122</v>
+        <v>1135</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9496</v>
+        <v>9759</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03629546835004444</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01165585239636233</v>
+        <v>0.01179139959261308</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09866395567210723</v>
+        <v>0.1013969601820753</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>8</v>
@@ -1873,19 +1873,19 @@
         <v>8160</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3203</v>
+        <v>4022</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>15343</v>
+        <v>15570</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05378280813092226</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02111062349998269</v>
+        <v>0.02650869152896121</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1011283481867962</v>
+        <v>0.102627733932713</v>
       </c>
     </row>
     <row r="22">
@@ -1902,19 +1902,19 @@
         <v>50799</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>45120</v>
+        <v>45867</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53683</v>
+        <v>53638</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9158711366613437</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.813493628095778</v>
+        <v>0.8269503733627972</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9678652847686749</v>
+        <v>0.967058151593489</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>84</v>
@@ -1923,19 +1923,19 @@
         <v>88607</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>81293</v>
+        <v>81536</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>92946</v>
+        <v>92874</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9205935558738293</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8446046429763967</v>
+        <v>0.8471269510513987</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9656778656451009</v>
+        <v>0.9649230583330715</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>138</v>
@@ -1944,19 +1944,19 @@
         <v>139406</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>131252</v>
+        <v>131768</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>145236</v>
+        <v>145420</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.918867093652694</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8651247909053421</v>
+        <v>0.868523885910641</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9572948824144446</v>
+        <v>0.9585052184046651</v>
       </c>
     </row>
     <row r="23">
@@ -2061,19 +2061,19 @@
         <v>6933</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2495</v>
+        <v>2401</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14255</v>
+        <v>14045</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01631016175653756</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.005868922093957507</v>
+        <v>0.005648693364535468</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03353490011369819</v>
+        <v>0.03304055722004893</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -2082,19 +2082,19 @@
         <v>6933</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2458</v>
+        <v>2343</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>14139</v>
+        <v>14359</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01617149073902293</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.005732817931146877</v>
+        <v>0.005466324743295782</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0329801237253678</v>
+        <v>0.03349206172998563</v>
       </c>
     </row>
     <row r="25">
@@ -2124,19 +2124,19 @@
         <v>9396</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4332</v>
+        <v>4634</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17048</v>
+        <v>17778</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02210446318149818</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01019073181514366</v>
+        <v>0.0109010390203689</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04010712341702336</v>
+        <v>0.04182350925398572</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -2145,19 +2145,19 @@
         <v>9396</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4243</v>
+        <v>4841</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>17879</v>
+        <v>17053</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02191652829484603</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009895913544954027</v>
+        <v>0.01129256627492661</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04170473777634258</v>
+        <v>0.03977709242258862</v>
       </c>
     </row>
     <row r="26">
@@ -2187,19 +2187,19 @@
         <v>408741</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>398763</v>
+        <v>398460</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>415729</v>
+        <v>415505</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9615853750619643</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9381103730905317</v>
+        <v>0.9373994755372129</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9780242776256122</v>
+        <v>0.9774976662347368</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>401</v>
@@ -2208,19 +2208,19 @@
         <v>412386</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>401595</v>
+        <v>401662</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>418808</v>
+        <v>419117</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9619119809661311</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9367400432145192</v>
+        <v>0.9368985652219965</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.976892476155694</v>
+        <v>0.977611884664672</v>
       </c>
     </row>
     <row r="27">
@@ -2312,19 +2312,19 @@
         <v>4640</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1705</v>
+        <v>1780</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10776</v>
+        <v>10436</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.009252070831196186</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.003400346545018676</v>
+        <v>0.003549129639936185</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02148597439313981</v>
+        <v>0.02080843880930759</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>14</v>
@@ -2333,19 +2333,19 @@
         <v>14420</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7854</v>
+        <v>8251</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>22954</v>
+        <v>24496</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02130538783815475</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01160408085792272</v>
+        <v>0.01219084568172347</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03391364210294133</v>
+        <v>0.036192234021306</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>19</v>
@@ -2354,19 +2354,19 @@
         <v>19061</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>11693</v>
+        <v>11322</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>29084</v>
+        <v>30135</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01617522110540971</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009922451867090025</v>
+        <v>0.009607625199485128</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02468069565634531</v>
+        <v>0.02557255801484467</v>
       </c>
     </row>
     <row r="29">
@@ -2383,19 +2383,19 @@
         <v>14609</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8981</v>
+        <v>8969</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>23167</v>
+        <v>23915</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02912721493420875</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01790623601057361</v>
+        <v>0.01788211748690723</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04619013493571826</v>
+        <v>0.04768240246642272</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>14</v>
@@ -2404,19 +2404,19 @@
         <v>15109</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>8390</v>
+        <v>8495</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>24831</v>
+        <v>25341</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02232333434026529</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01239517582050205</v>
+        <v>0.01255050593662488</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03668668999075479</v>
+        <v>0.03744054970323402</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>30</v>
@@ -2425,19 +2425,19 @@
         <v>29718</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>20642</v>
+        <v>20693</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>41703</v>
+        <v>41793</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0252192211618321</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01751698336434952</v>
+        <v>0.01756065526240835</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03538990964280291</v>
+        <v>0.03546616235263368</v>
       </c>
     </row>
     <row r="30">
@@ -2454,19 +2454,19 @@
         <v>482302</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>471912</v>
+        <v>472258</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>489156</v>
+        <v>488682</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9616207142345951</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9409058767424932</v>
+        <v>0.9415943649988724</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.975287592471236</v>
+        <v>0.9743406954202419</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>633</v>
@@ -2475,19 +2475,19 @@
         <v>647312</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>634733</v>
+        <v>634513</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>656510</v>
+        <v>657116</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9563712778215799</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.9377866384130155</v>
+        <v>0.9374604618441</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.969960346653541</v>
+        <v>0.9708561597506004</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1134</v>
@@ -2496,19 +2496,19 @@
         <v>1129614</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1115126</v>
+        <v>1115782</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1140935</v>
+        <v>1142983</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9586055577327582</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9463111595691031</v>
+        <v>0.9468675330242771</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9682122695953772</v>
+        <v>0.9699503793247173</v>
       </c>
     </row>
     <row r="31">
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5034</v>
+        <v>4895</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02244268643654787</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1146323879455239</v>
+        <v>0.1114565782781932</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6927</v>
+        <v>6751</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08510507578415429</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2739155564908178</v>
+        <v>0.2669592222864466</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -2931,19 +2931,19 @@
         <v>3138</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>933</v>
+        <v>961</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8367</v>
+        <v>7734</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04534035581088017</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01347729890376568</v>
+        <v>0.01388125734055228</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1208959179378514</v>
+        <v>0.1117497575292252</v>
       </c>
     </row>
     <row r="6">
@@ -2960,7 +2960,7 @@
         <v>42932</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38884</v>
+        <v>39023</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>43918</v>
@@ -2969,7 +2969,7 @@
         <v>0.9775573135634521</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8853676120544757</v>
+        <v>0.8885434217218068</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -2981,7 +2981,7 @@
         <v>23137</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18362</v>
+        <v>18538</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>25289</v>
@@ -2990,7 +2990,7 @@
         <v>0.9148949242158457</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.726084443509182</v>
+        <v>0.7330407777135534</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -3002,19 +3002,19 @@
         <v>66069</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>60840</v>
+        <v>61473</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>68274</v>
+        <v>68246</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9546596441891199</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8791040820621485</v>
+        <v>0.8882502424707756</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9865227010962343</v>
+        <v>0.9861187426594478</v>
       </c>
     </row>
     <row r="7">
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6912</v>
+        <v>6824</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1168536038681506</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3656640088822416</v>
+        <v>0.3610171330181494</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7706</v>
+        <v>6707</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0277716676373093</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09689910226785838</v>
+        <v>0.08433536819163073</v>
       </c>
     </row>
     <row r="9">
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7181</v>
+        <v>7220</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03733191266226404</v>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1184468724486513</v>
+        <v>0.1190886557308637</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5234</v>
+        <v>5299</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05888893275096339</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2768808383322872</v>
+        <v>0.2803617107668089</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -3211,19 +3211,19 @@
         <v>3377</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1082</v>
+        <v>1061</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9643</v>
+        <v>9652</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04245519835766853</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01360030173791064</v>
+        <v>0.01334004046497645</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1212502154377994</v>
+        <v>0.1213635741235545</v>
       </c>
     </row>
     <row r="10">
@@ -3240,7 +3240,7 @@
         <v>58367</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53449</v>
+        <v>53410</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>60630</v>
@@ -3249,7 +3249,7 @@
         <v>0.9626680873377359</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8815531275513478</v>
+        <v>0.8809113442691393</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -3261,19 +3261,19 @@
         <v>15580</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10904</v>
+        <v>10884</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17873</v>
+        <v>17896</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.824257463380886</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5768590131211264</v>
+        <v>0.5758225847829701</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9455641128221436</v>
+        <v>0.9467870096520208</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -3282,19 +3282,19 @@
         <v>73946</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>67285</v>
+        <v>68068</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77354</v>
+        <v>77450</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9297731340050222</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.846020525759448</v>
+        <v>0.8558622212402403</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9726275347916423</v>
+        <v>0.9738367482691542</v>
       </c>
     </row>
     <row r="11">
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5039</v>
+        <v>5035</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.008361460976098214</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04246660188970451</v>
+        <v>0.04243359194911882</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7486</v>
+        <v>6994</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0402258258308411</v>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.137075580635472</v>
+        <v>0.1280512880353015</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -3428,19 +3428,19 @@
         <v>3189</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>0</v>
+        <v>985</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8366</v>
+        <v>8875</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01840519184417516</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0</v>
+        <v>0.005685753833835908</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04828267014598874</v>
+        <v>0.05122148269817893</v>
       </c>
     </row>
     <row r="13">
@@ -3457,19 +3457,19 @@
         <v>5041</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1914</v>
+        <v>1938</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11294</v>
+        <v>11107</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04248171841572059</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01613349290662843</v>
+        <v>0.01633041238902409</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09518156632411788</v>
+        <v>0.09361131079461754</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6787</v>
+        <v>7542</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0404101365637122</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1242738970645061</v>
+        <v>0.1380891843925235</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -3499,19 +3499,19 @@
         <v>7248</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3179</v>
+        <v>3003</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14314</v>
+        <v>14179</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04182875041564864</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01835018355765343</v>
+        <v>0.01732953863117889</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08261348545876938</v>
+        <v>0.0818348253891213</v>
       </c>
     </row>
     <row r="14">
@@ -3528,19 +3528,19 @@
         <v>112620</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>106317</v>
+        <v>106321</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>116509</v>
+        <v>115931</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9491568206081812</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8960324237166443</v>
+        <v>0.8960669322358242</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9819290304175319</v>
+        <v>0.9770568207019626</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>48</v>
@@ -3549,19 +3549,19 @@
         <v>50211</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>44833</v>
+        <v>44626</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>53460</v>
+        <v>53455</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9193640376054467</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8208922658333963</v>
+        <v>0.8170987743921303</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9788458841796591</v>
+        <v>0.9787573325474062</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>144</v>
@@ -3570,19 +3570,19 @@
         <v>162831</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>155698</v>
+        <v>155139</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>167530</v>
+        <v>168172</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9397660577401762</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8985961009472494</v>
+        <v>0.8953681188159985</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9668817302447188</v>
+        <v>0.9705910833966461</v>
       </c>
     </row>
     <row r="15">
@@ -3674,19 +3674,19 @@
         <v>11996</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6314</v>
+        <v>6511</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21770</v>
+        <v>22003</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05176339479106241</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0272464329366801</v>
+        <v>0.02809431977761024</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09393704439434722</v>
+        <v>0.09494267963210891</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>11996</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5510</v>
+        <v>6343</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20966</v>
+        <v>21999</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04110465486773224</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01888055134182922</v>
+        <v>0.02173542175071416</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07183835693377458</v>
+        <v>0.07537848382574686</v>
       </c>
     </row>
     <row r="17">
@@ -3737,19 +3737,19 @@
         <v>15690</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8546</v>
+        <v>8534</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26530</v>
+        <v>26128</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06770078716166143</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0368756621339275</v>
+        <v>0.0368245096282653</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1144758949470876</v>
+        <v>0.1127402164732032</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -3758,19 +3758,19 @@
         <v>6383</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2177</v>
+        <v>2544</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12028</v>
+        <v>12639</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1062189699501407</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03623377777683213</v>
+        <v>0.04232519912358226</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2001565302105888</v>
+        <v>0.2103110729667168</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -3779,19 +3779,19 @@
         <v>22073</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13944</v>
+        <v>12879</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>33878</v>
+        <v>33185</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07563216983698358</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04777717008650741</v>
+        <v>0.04412799620670469</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1160792921720444</v>
+        <v>0.113708121343191</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>204067</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>191425</v>
+        <v>190981</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>214323</v>
+        <v>213114</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8805358180472761</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8259892652135525</v>
+        <v>0.8240719338699954</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9247916102406334</v>
+        <v>0.9195751808478564</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>51</v>
@@ -3829,19 +3829,19 @@
         <v>53712</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>48067</v>
+        <v>47456</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>57918</v>
+        <v>57551</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8937810300498593</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7998434697894113</v>
+        <v>0.7896889270332835</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9637662222231679</v>
+        <v>0.9576748008764213</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>243</v>
@@ -3850,19 +3850,19 @@
         <v>257779</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>243783</v>
+        <v>245335</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>269002</v>
+        <v>268523</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8832631752952842</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8353096924462913</v>
+        <v>0.8406250700887845</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9217181026292166</v>
+        <v>0.9200771536728726</v>
       </c>
     </row>
     <row r="19">
@@ -3954,19 +3954,19 @@
         <v>3047</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0</v>
+        <v>995</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8096</v>
+        <v>8153</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02966835443827004</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0</v>
+        <v>0.009685186663710653</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07883128996089402</v>
+        <v>0.07938799632088284</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -3975,19 +3975,19 @@
         <v>10969</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5536</v>
+        <v>5562</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19203</v>
+        <v>19706</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05822247992322883</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02938286677868725</v>
+        <v>0.02952007042049246</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1019264744690435</v>
+        <v>0.1045973037762375</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -3996,19 +3996,19 @@
         <v>14016</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7991</v>
+        <v>7594</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>24229</v>
+        <v>22906</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0481488745927422</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02745211362125439</v>
+        <v>0.02608788461005333</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08323215652174186</v>
+        <v>0.07868745841854523</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>5318</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2044</v>
+        <v>1912</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11951</v>
+        <v>11655</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0517806635026099</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01989986537305219</v>
+        <v>0.01861880871082025</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1163734075239534</v>
+        <v>0.1134929499674285</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>25</v>
@@ -4046,19 +4046,19 @@
         <v>27265</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>18441</v>
+        <v>19190</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>38978</v>
+        <v>38247</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.144718207996251</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09788297075767227</v>
+        <v>0.1018578218505658</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2068880918775395</v>
+        <v>0.2030103449043218</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>30</v>
@@ -4067,19 +4067,19 @@
         <v>32583</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>22391</v>
+        <v>22820</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>44068</v>
+        <v>44581</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.111930786644242</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07692000638818687</v>
+        <v>0.07839167059036828</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1513870740020394</v>
+        <v>0.153150232541752</v>
       </c>
     </row>
     <row r="22">
@@ -4096,19 +4096,19 @@
         <v>94332</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>87197</v>
+        <v>86907</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>98666</v>
+        <v>98619</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9185509820591201</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8490824557101585</v>
+        <v>0.8462532821354755</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9607591006896979</v>
+        <v>0.9603039116829256</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>142</v>
@@ -4117,19 +4117,19 @@
         <v>150166</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>138128</v>
+        <v>136772</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>161050</v>
+        <v>159677</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7970593120805202</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7331657274973182</v>
+        <v>0.7259685488797696</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8548283912657273</v>
+        <v>0.8475429165131074</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>230</v>
@@ -4138,19 +4138,19 @@
         <v>244497</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>231112</v>
+        <v>231700</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>256740</v>
+        <v>257001</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8399203387630158</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7939370450558373</v>
+        <v>0.7959565180789576</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8819780231822898</v>
+        <v>0.8828739981378714</v>
       </c>
     </row>
     <row r="23">
@@ -4255,19 +4255,19 @@
         <v>20488</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>13185</v>
+        <v>12640</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>32264</v>
+        <v>31630</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05190763490096344</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03340546486584909</v>
+        <v>0.03202300017547474</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08174212066253576</v>
+        <v>0.08013558318543683</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>18</v>
@@ -4276,19 +4276,19 @@
         <v>20488</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>13213</v>
+        <v>11852</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>31562</v>
+        <v>31442</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05164753870579098</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03330678905086826</v>
+        <v>0.02987722301277444</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07956299568728326</v>
+        <v>0.07925984137866644</v>
       </c>
     </row>
     <row r="25">
@@ -4318,19 +4318,19 @@
         <v>31557</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21650</v>
+        <v>22731</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>43857</v>
+        <v>44181</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07995145643275127</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05485088182931902</v>
+        <v>0.05758914474998399</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1111130929530048</v>
+        <v>0.1119340407519596</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>29</v>
@@ -4339,19 +4339,19 @@
         <v>31557</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>21926</v>
+        <v>22047</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>43074</v>
+        <v>45508</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0795508396514949</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05527320089532895</v>
+        <v>0.05557803459596231</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1085835773602918</v>
+        <v>0.1147197650485635</v>
       </c>
     </row>
     <row r="26">
@@ -4381,19 +4381,19 @@
         <v>342659</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>326674</v>
+        <v>328235</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>355448</v>
+        <v>354849</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8681409086662853</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8276427469671499</v>
+        <v>0.8315974321107801</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9005439562604272</v>
+        <v>0.8990267260360046</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>323</v>
@@ -4402,19 +4402,19 @@
         <v>344647</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>329906</v>
+        <v>328716</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>356751</v>
+        <v>357084</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8688016216427141</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8316414342693987</v>
+        <v>0.828641982828149</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8993157935826001</v>
+        <v>0.900153651037318</v>
       </c>
     </row>
     <row r="27">
@@ -4506,19 +4506,19 @@
         <v>16035</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9584</v>
+        <v>9461</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>26294</v>
+        <v>26428</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02865294014200883</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01712621871389013</v>
+        <v>0.01690646353126406</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04698398606949729</v>
+        <v>0.04722276121654314</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>32</v>
@@ -4527,19 +4527,19 @@
         <v>35863</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>24837</v>
+        <v>24791</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>49022</v>
+        <v>49304</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04833246484729083</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03347326871359397</v>
+        <v>0.03341029819321258</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06606700316621859</v>
+        <v>0.06644717709077567</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>46</v>
@@ -4548,19 +4548,19 @@
         <v>51898</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>38613</v>
+        <v>38402</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>67026</v>
+        <v>68982</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03987131290420026</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02966478445329786</v>
+        <v>0.02950271564920905</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05149316694883452</v>
+        <v>0.05299636453351443</v>
       </c>
     </row>
     <row r="29">
@@ -4577,19 +4577,19 @@
         <v>29297</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>19354</v>
+        <v>20223</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>42752</v>
+        <v>42855</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05235028464869421</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0345822593026635</v>
+        <v>0.03613569545859655</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07639245872141953</v>
+        <v>0.07657724338587381</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>65</v>
@@ -4598,19 +4598,19 @@
         <v>70678</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>55867</v>
+        <v>56238</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>89061</v>
+        <v>89651</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09525231481009341</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07529196153658099</v>
+        <v>0.07579246550798661</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1200273346438</v>
+        <v>0.1208231444640235</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>91</v>
@@ -4619,19 +4619,19 @@
         <v>99975</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>81011</v>
+        <v>80397</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>121594</v>
+        <v>120932</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07680671709882229</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06223725482781915</v>
+        <v>0.0617657802302311</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09341608682881147</v>
+        <v>0.09290755658215652</v>
       </c>
     </row>
     <row r="30">
@@ -4648,19 +4648,19 @@
         <v>514305</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>499769</v>
+        <v>498251</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>526179</v>
+        <v>526582</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.918996775209297</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8930228871542668</v>
+        <v>0.8903101879962257</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9402146072358566</v>
+        <v>0.9409340480934542</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>596</v>
@@ -4669,19 +4669,19 @@
         <v>635464</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>613268</v>
+        <v>614160</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>653513</v>
+        <v>655332</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8564152203426157</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8265018391828509</v>
+        <v>0.8277036719822081</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8807390690530759</v>
+        <v>0.8831911796282097</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1060</v>
@@ -4690,19 +4690,19 @@
         <v>1149769</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1123434</v>
+        <v>1124783</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1173120</v>
+        <v>1172205</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8833219699969774</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8630898339897813</v>
+        <v>0.8641261686731884</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9012618515609871</v>
+        <v>0.9005588507237143</v>
       </c>
     </row>
     <row r="31">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4001</v>
+        <v>3696</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01079614233376738</v>
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05828490269858071</v>
+        <v>0.05384403365151291</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -5107,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8086</v>
+        <v>8504</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07011929036884566</v>
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2192071869202061</v>
+        <v>0.2305491183259108</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -5125,19 +5125,19 @@
         <v>3328</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9406</v>
+        <v>10041</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03153167446495144</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007029526011317002</v>
+        <v>0.007057612196676983</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08912798625024133</v>
+        <v>0.09514293411586656</v>
       </c>
     </row>
     <row r="6">
@@ -5154,7 +5154,7 @@
         <v>67906</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>64646</v>
+        <v>64951</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>68647</v>
@@ -5163,7 +5163,7 @@
         <v>0.9892038576662326</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9417150973014192</v>
+        <v>0.9461559663484871</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -5175,7 +5175,7 @@
         <v>34301</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28802</v>
+        <v>28384</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>36888</v>
@@ -5184,7 +5184,7 @@
         <v>0.9298807096311543</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7807928130797939</v>
+        <v>0.7694508816740893</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -5196,19 +5196,19 @@
         <v>102207</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>96129</v>
+        <v>95494</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>104793</v>
+        <v>104790</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9684683255350486</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9108720137497586</v>
+        <v>0.9048570658841339</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.992970473988683</v>
+        <v>0.992942387803323</v>
       </c>
     </row>
     <row r="7">
@@ -5300,19 +5300,19 @@
         <v>2931</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>890</v>
+        <v>931</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7794</v>
+        <v>7915</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0549404929815854</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01668490797767989</v>
+        <v>0.01745045827601083</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1461111370442699</v>
+        <v>0.1483723588995677</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -5334,19 +5334,19 @@
         <v>2931</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>888</v>
+        <v>904</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7184</v>
+        <v>8126</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04131757187258769</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.012513510577696</v>
+        <v>0.01275009145883879</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1012738320944604</v>
+        <v>0.1145625000136899</v>
       </c>
     </row>
     <row r="9">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6935</v>
+        <v>6867</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03601716491128254</v>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1300045551547369</v>
+        <v>0.1287258151716661</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5638</v>
+        <v>5618</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0717301419486993</v>
@@ -5396,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.320543428582608</v>
+        <v>0.3194465677654527</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -5405,19 +5405,19 @@
         <v>3183</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>908</v>
+        <v>887</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8636</v>
+        <v>8578</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04487247439879009</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01279462634830905</v>
+        <v>0.01250220568430528</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1217433888032693</v>
+        <v>0.1209271967812288</v>
       </c>
     </row>
     <row r="10">
@@ -5434,19 +5434,19 @@
         <v>48492</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43399</v>
+        <v>43539</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51474</v>
+        <v>51432</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9090423421071321</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8135692746319173</v>
+        <v>0.8161863222867479</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9649446953696232</v>
+        <v>0.9641588946181407</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -5455,7 +5455,7 @@
         <v>16326</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11950</v>
+        <v>11970</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>17588</v>
@@ -5464,7 +5464,7 @@
         <v>0.9282698580513007</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6794565714173921</v>
+        <v>0.680553432234547</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -5476,19 +5476,19 @@
         <v>64818</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59479</v>
+        <v>58966</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>68731</v>
+        <v>68809</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9138099537286222</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.838540305475605</v>
+        <v>0.8313071219299969</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9689659058469755</v>
+        <v>0.9700735221799917</v>
       </c>
     </row>
     <row r="11">
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5754</v>
+        <v>5370</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01377266915599261</v>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04784397255044269</v>
+        <v>0.04465394717119917</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -5617,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5184</v>
+        <v>5912</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.009949640244323817</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03114077801787191</v>
+        <v>0.03551116465967812</v>
       </c>
     </row>
     <row r="13">
@@ -5643,19 +5643,19 @@
         <v>5403</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2049</v>
+        <v>2019</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11924</v>
+        <v>11272</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04493088027938764</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0170392267331511</v>
+        <v>0.01678633151969874</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0991545443712032</v>
+        <v>0.09373292132492946</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7040</v>
+        <v>7905</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04805788986236932</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1523557195781115</v>
+        <v>0.1710618411486431</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -5685,19 +5685,19 @@
         <v>7624</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3378</v>
+        <v>3471</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14605</v>
+        <v>14877</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04579887818940806</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02029188778387222</v>
+        <v>0.02085296832404369</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08773157176520427</v>
+        <v>0.08936503018181827</v>
       </c>
     </row>
     <row r="14">
@@ -5714,19 +5714,19 @@
         <v>113201</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>106780</v>
+        <v>107310</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>117060</v>
+        <v>117132</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9412964505646197</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8879054640904305</v>
+        <v>0.8923107506990126</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9733839524635495</v>
+        <v>0.9739841988911904</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>35</v>
@@ -5735,7 +5735,7 @@
         <v>43988</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>39169</v>
+        <v>38304</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>46209</v>
@@ -5744,7 +5744,7 @@
         <v>0.9519421101376306</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8476442804218884</v>
+        <v>0.8289381588513557</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -5756,19 +5756,19 @@
         <v>157190</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>150024</v>
+        <v>150282</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>161735</v>
+        <v>161824</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9442514815662681</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9012067583865938</v>
+        <v>0.902755287601985</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9715550630317391</v>
+        <v>0.9720939933483548</v>
       </c>
     </row>
     <row r="15">
@@ -5863,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6576</v>
+        <v>5779</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008193880531191352</v>
@@ -5872,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.032256724846142</v>
+        <v>0.02834628825305575</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -5884,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6421</v>
+        <v>6665</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01283316368405981</v>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06483073481849221</v>
+        <v>0.06729423657798915</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -5902,19 +5902,19 @@
         <v>2941</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8195</v>
+        <v>8001</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009710881988050781</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002692914607446931</v>
+        <v>0.002724448000072069</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02705410365201361</v>
+        <v>0.02641532806694535</v>
       </c>
     </row>
     <row r="17">
@@ -5931,19 +5931,19 @@
         <v>13821</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7778</v>
+        <v>8189</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21931</v>
+        <v>21581</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06779719747800075</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03815586634232836</v>
+        <v>0.040170629927731</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1075788610844282</v>
+        <v>0.1058658863706117</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -5952,19 +5952,19 @@
         <v>6870</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2194</v>
+        <v>2372</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15531</v>
+        <v>16079</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06935786455117678</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02215397234189769</v>
+        <v>0.0239475048507839</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.156805285651419</v>
+        <v>0.1623368536236455</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -5973,19 +5973,19 @@
         <v>20690</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13398</v>
+        <v>13340</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32416</v>
+        <v>31658</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06830752076409222</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04423305643318992</v>
+        <v>0.04404193961124828</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1070196598899686</v>
+        <v>0.1045159231652672</v>
       </c>
     </row>
     <row r="18">
@@ -6002,19 +6002,19 @@
         <v>188365</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>179990</v>
+        <v>180375</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>194361</v>
+        <v>194421</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9240089219908079</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8829253180649747</v>
+        <v>0.8848142586619703</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9534215553914566</v>
+        <v>0.9537172752140124</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>78</v>
@@ -6023,19 +6023,19 @@
         <v>90905</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>80828</v>
+        <v>82040</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>95692</v>
+        <v>95870</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9178089717647634</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8160690180410841</v>
+        <v>0.8282975901516992</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9661348993410775</v>
+        <v>0.9679336042418606</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>278</v>
@@ -6044,19 +6044,19 @@
         <v>279270</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>266781</v>
+        <v>267272</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>286771</v>
+        <v>287110</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.921981597247857</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8807512065519696</v>
+        <v>0.8823724701067578</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.94674585157808</v>
+        <v>0.9478628433220002</v>
       </c>
     </row>
     <row r="19">
@@ -6151,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5786</v>
+        <v>5832</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01120533248700108</v>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0398408009933706</v>
+        <v>0.0401569872202299</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -6172,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8014</v>
+        <v>9215</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01649971887569793</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05023006410814155</v>
+        <v>0.05775749419467018</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -6190,19 +6190,19 @@
         <v>4260</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1280</v>
+        <v>1601</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10808</v>
+        <v>11495</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01397698924567744</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004201119380177519</v>
+        <v>0.005254227961889087</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03546233516637289</v>
+        <v>0.03771762816749373</v>
       </c>
     </row>
     <row r="21">
@@ -6219,19 +6219,19 @@
         <v>5885</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1899</v>
+        <v>2110</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12102</v>
+        <v>12060</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0405269191462705</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01307829477750476</v>
+        <v>0.01452684797815881</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08333808028357133</v>
+        <v>0.0830429421832488</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -6240,19 +6240,19 @@
         <v>13712</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6647</v>
+        <v>6223</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>22601</v>
+        <v>22377</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08594166142618843</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04166306628006555</v>
+        <v>0.03900292398226535</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1416529104712793</v>
+        <v>0.1402538270883633</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>17</v>
@@ -6261,19 +6261,19 @@
         <v>19597</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>11673</v>
+        <v>11406</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>31787</v>
+        <v>30501</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.06430192688888864</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03830170937144187</v>
+        <v>0.03742618946606797</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1042995185937155</v>
+        <v>0.1000789459682236</v>
       </c>
     </row>
     <row r="22">
@@ -6290,19 +6290,19 @@
         <v>137708</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>131039</v>
+        <v>130564</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>141845</v>
+        <v>141735</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9482677483667284</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9023403494326054</v>
+        <v>0.8990687319262161</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9767543032003559</v>
+        <v>0.975996842059461</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>126</v>
@@ -6311,19 +6311,19 @@
         <v>143205</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>133868</v>
+        <v>133715</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>150771</v>
+        <v>151513</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8975586196981137</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8390375560350547</v>
+        <v>0.8380780913924346</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9449762595917202</v>
+        <v>0.9496267466465523</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>277</v>
@@ -6332,19 +6332,19 @@
         <v>280914</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>268617</v>
+        <v>268661</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>289507</v>
+        <v>289815</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9217210838654339</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8813724737941098</v>
+        <v>0.8815162932522631</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9499154427140202</v>
+        <v>0.9509258366381627</v>
       </c>
     </row>
     <row r="23">
@@ -6445,19 +6445,19 @@
         <v>16664</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8445</v>
+        <v>8768</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>26944</v>
+        <v>27105</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04034061783466423</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02044361595352409</v>
+        <v>0.02122646999714732</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06522719318406631</v>
+        <v>0.06561634497867896</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>13</v>
@@ -6466,19 +6466,19 @@
         <v>16664</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>8445</v>
+        <v>8768</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>26944</v>
+        <v>27105</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04034061783466423</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02044361595352409</v>
+        <v>0.02122646999714732</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06522719318406631</v>
+        <v>0.06561634497867896</v>
       </c>
     </row>
     <row r="25">
@@ -6504,19 +6504,19 @@
         <v>24401</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15093</v>
+        <v>14996</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38607</v>
+        <v>38020</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05907033523260925</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03653649056562652</v>
+        <v>0.0363017958648383</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09345987801846725</v>
+        <v>0.09204034487824285</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>18</v>
@@ -6525,19 +6525,19 @@
         <v>24401</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>15093</v>
+        <v>14996</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>38607</v>
+        <v>38020</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05907033523260925</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03653649056562652</v>
+        <v>0.0363017958648383</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09345987801846725</v>
+        <v>0.09204034487824285</v>
       </c>
     </row>
     <row r="26">
@@ -6563,19 +6563,19 @@
         <v>372018</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>356685</v>
+        <v>355789</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>384999</v>
+        <v>384276</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9005890469327266</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8634705159122593</v>
+        <v>0.8613017680691792</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9320125879923713</v>
+        <v>0.930263903790548</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>316</v>
@@ -6584,19 +6584,19 @@
         <v>372018</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>356685</v>
+        <v>355789</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>384999</v>
+        <v>384276</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9005890469327266</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8634705159122593</v>
+        <v>0.8613017680691792</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9320125879923713</v>
+        <v>0.930263903790548</v>
       </c>
     </row>
     <row r="27">
@@ -6676,19 +6676,19 @@
         <v>7885</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3542</v>
+        <v>3662</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>13900</v>
+        <v>14759</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01333382825653308</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005990252344639737</v>
+        <v>0.006192742614898788</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02350656826071905</v>
+        <v>0.02495890361317886</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -6697,19 +6697,19 @@
         <v>20568</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>12286</v>
+        <v>11816</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>33494</v>
+        <v>32851</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02662943551395763</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01590670585535515</v>
+        <v>0.01529895351186051</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04336619332290523</v>
+        <v>0.04253336398803444</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>25</v>
@@ -6718,19 +6718,19 @@
         <v>28452</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>18649</v>
+        <v>18677</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>42299</v>
+        <v>42313</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02086415638708498</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01367535658341695</v>
+        <v>0.01369600004180465</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03101776905018782</v>
+        <v>0.031028476370443</v>
       </c>
     </row>
     <row r="29">
@@ -6747,19 +6747,19 @@
         <v>27772</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>19709</v>
+        <v>18996</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>38817</v>
+        <v>38577</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04696553602805021</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03333042152161954</v>
+        <v>0.03212489674544652</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06564316092972756</v>
+        <v>0.06523839501034706</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>39</v>
@@ -6768,19 +6768,19 @@
         <v>51051</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>36675</v>
+        <v>37032</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>69127</v>
+        <v>70356</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06609762820075467</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04748451799222858</v>
+        <v>0.047946594893771</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08950114015729915</v>
+        <v>0.09109186667803162</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>70</v>
@@ -6789,19 +6789,19 @@
         <v>78823</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>62376</v>
+        <v>62161</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>97407</v>
+        <v>100023</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05780151584416397</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04574035034101497</v>
+        <v>0.0455827941909518</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07142883639148946</v>
+        <v>0.07334740400337746</v>
       </c>
     </row>
     <row r="30">
@@ -6818,19 +6818,19 @@
         <v>555671</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>543194</v>
+        <v>543780</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>564624</v>
+        <v>565130</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9397006357154167</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9186001127909812</v>
+        <v>0.9195913186920865</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9548402652951206</v>
+        <v>0.9556971511191401</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>595</v>
@@ -6839,19 +6839,19 @@
         <v>700745</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>679337</v>
+        <v>679639</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>716429</v>
+        <v>717522</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9072729362852877</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8795548907955482</v>
+        <v>0.8799464030117181</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9275794404838608</v>
+        <v>0.9289950544122068</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1182</v>
@@ -6860,19 +6860,19 @@
         <v>1256416</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1237147</v>
+        <v>1234620</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1275970</v>
+        <v>1274505</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.921334327768751</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9072044331050501</v>
+        <v>0.905351142272061</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9356734825247747</v>
+        <v>0.9345989858711312</v>
       </c>
     </row>
     <row r="31">
@@ -7256,7 +7256,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3430</v>
+        <v>3462</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.007699767785149127</v>
@@ -7265,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02848648004081222</v>
+        <v>0.02875345356209433</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -7277,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2073</v>
+        <v>2553</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.006565815931803418</v>
@@ -7286,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0278008725014517</v>
+        <v>0.03423950432988119</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -7295,19 +7295,19 @@
         <v>1417</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4084</v>
+        <v>4348</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007266108095537275</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.00159026215158967</v>
+        <v>0.001607291147636691</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02094966926644161</v>
+        <v>0.02230061602894577</v>
       </c>
     </row>
     <row r="6">
@@ -7324,7 +7324,7 @@
         <v>119474</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>116971</v>
+        <v>116939</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>120401</v>
@@ -7333,7 +7333,7 @@
         <v>0.9923002322148509</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9715135199591877</v>
+        <v>0.9712465464379055</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -7345,7 +7345,7 @@
         <v>74069</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>72486</v>
+        <v>72006</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>74559</v>
@@ -7354,7 +7354,7 @@
         <v>0.9934341840681967</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9721991274985483</v>
+        <v>0.9657604956701185</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -7366,19 +7366,19 @@
         <v>193543</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>190876</v>
+        <v>190612</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>194650</v>
+        <v>194647</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9927338919044627</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9790503307335588</v>
+        <v>0.9776993839710538</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9984097378484103</v>
+        <v>0.9983927088523633</v>
       </c>
     </row>
     <row r="7">
@@ -7483,19 +7483,19 @@
         <v>1636</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4738</v>
+        <v>4548</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02953808262658445</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.007232889905219047</v>
+        <v>0.00717301602668601</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08554817244249024</v>
+        <v>0.08211878492622461</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -7504,19 +7504,19 @@
         <v>1636</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4626</v>
+        <v>4949</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.01021836659065923</v>
+        <v>0.01021836659065924</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002473584513940476</v>
+        <v>0.002485154282849629</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02889343725016185</v>
+        <v>0.03091189815549105</v>
       </c>
     </row>
     <row r="9">
@@ -7533,19 +7533,19 @@
         <v>4134</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1483</v>
+        <v>1474</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10189</v>
+        <v>10513</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03948014943154107</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01416261939788772</v>
+        <v>0.01407419393351356</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09730663503534837</v>
+        <v>0.1003965464890346</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -7557,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1785</v>
+        <v>2187</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.007795464781489385</v>
@@ -7566,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03223612424840133</v>
+        <v>0.03947940704875152</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -7575,19 +7575,19 @@
         <v>4566</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1794</v>
+        <v>1763</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9774</v>
+        <v>10925</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.02851919007758927</v>
+        <v>0.02851919007758928</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01120403596432328</v>
+        <v>0.01101061863337315</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0610516949864492</v>
+        <v>0.0682407588743586</v>
       </c>
     </row>
     <row r="10">
@@ -7604,19 +7604,19 @@
         <v>100581</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>94526</v>
+        <v>94202</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>103232</v>
+        <v>103241</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.960519850568459</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9026933649646514</v>
+        <v>0.8996034535109649</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9858373806021122</v>
+        <v>0.9859258060664864</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>94</v>
@@ -7625,19 +7625,19 @@
         <v>53317</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49866</v>
+        <v>50166</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54711</v>
+        <v>54743</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9626664525919261</v>
+        <v>0.9626664525919262</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9003530768215883</v>
+        <v>0.9057730126086567</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9878311474820349</v>
+        <v>0.9884068711243815</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>236</v>
@@ -7646,19 +7646,19 @@
         <v>153898</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>148448</v>
+        <v>147235</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>157137</v>
+        <v>157180</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9612624433317513</v>
+        <v>0.9612624433317515</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9272179777294575</v>
+        <v>0.919646260109566</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9814940238047828</v>
+        <v>0.9817603356234561</v>
       </c>
     </row>
     <row r="11">
@@ -7753,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2950</v>
+        <v>3013</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.007291245269198813</v>
@@ -7762,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02623065987487393</v>
+        <v>0.02679206263211431</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -7774,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>2991</v>
+        <v>3138</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01049887770236932</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05160134558893811</v>
+        <v>0.05412722832164163</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -7792,19 +7792,19 @@
         <v>1429</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>4592</v>
+        <v>3900</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.008382221791641465</v>
+        <v>0.008382221791641463</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.002020711668398669</v>
+        <v>0.002045246633079075</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02694346468406469</v>
+        <v>0.02288270219190035</v>
       </c>
     </row>
     <row r="13">
@@ -7821,19 +7821,19 @@
         <v>5955</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2813</v>
+        <v>2816</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10566</v>
+        <v>11226</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05294440778500209</v>
+        <v>0.05294440778500208</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0250133992439048</v>
+        <v>0.02503749064612807</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0939486009581674</v>
+        <v>0.09981329463233991</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -7842,19 +7842,19 @@
         <v>3636</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1634</v>
+        <v>1459</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7395</v>
+        <v>7314</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06271652092055312</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02818279389029363</v>
+        <v>0.02517406142385065</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1275603430435673</v>
+        <v>0.1261767060973206</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -7863,19 +7863,19 @@
         <v>9590</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5476</v>
+        <v>5838</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15435</v>
+        <v>15676</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.056268088483355</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0321266829251534</v>
+        <v>0.03425381944658337</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09055677420700303</v>
+        <v>0.09197256644588475</v>
       </c>
     </row>
     <row r="14">
@@ -7892,19 +7892,19 @@
         <v>105696</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>101208</v>
+        <v>100389</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>109245</v>
+        <v>108872</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9397643469457989</v>
+        <v>0.939764346945799</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.899859438891858</v>
+        <v>0.8925740372200754</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9713138821837488</v>
+        <v>0.9680021447959583</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>98</v>
@@ -7913,19 +7913,19 @@
         <v>53726</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>49878</v>
+        <v>50081</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>55905</v>
+        <v>56143</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9267846013770776</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8604081148921998</v>
+        <v>0.8639188292193295</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9643833204210385</v>
+        <v>0.9684887068894048</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>251</v>
@@ -7937,16 +7937,16 @@
         <v>153436</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>163756</v>
+        <v>163378</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9353496897250038</v>
+        <v>0.9353496897250037</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9002278868885311</v>
+        <v>0.9002273998397797</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9607767142466734</v>
+        <v>0.9585627190789618</v>
       </c>
     </row>
     <row r="15">
@@ -8038,19 +8038,19 @@
         <v>5366</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2200</v>
+        <v>2268</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11039</v>
+        <v>11000</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02063747084484657</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008462402945916188</v>
+        <v>0.008723457255420911</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04245518309358843</v>
+        <v>0.04230577847163079</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -8059,19 +8059,19 @@
         <v>2153</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5076</v>
+        <v>5272</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01645338417133298</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005564786378211855</v>
+        <v>0.005655937631058649</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03878148027003653</v>
+        <v>0.04028249979392511</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -8080,19 +8080,19 @@
         <v>7519</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3963</v>
+        <v>4047</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13184</v>
+        <v>13857</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01923651705536015</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01013828302517727</v>
+        <v>0.01035267247943435</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03372896108126081</v>
+        <v>0.03544980364105361</v>
       </c>
     </row>
     <row r="17">
@@ -8109,19 +8109,19 @@
         <v>13861</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8276</v>
+        <v>8749</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20371</v>
+        <v>21136</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05331088415468054</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03182861696076041</v>
+        <v>0.03364926730719715</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07834721373518906</v>
+        <v>0.08129176277730059</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -8130,19 +8130,19 @@
         <v>6511</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3806</v>
+        <v>3691</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11141</v>
+        <v>10717</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.04974478963784498</v>
+        <v>0.04974478963784497</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0290803029904953</v>
+        <v>0.02820072913591039</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08512618834750645</v>
+        <v>0.08188669090430417</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>34</v>
@@ -8151,19 +8151,19 @@
         <v>20372</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13942</v>
+        <v>14299</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>27957</v>
+        <v>28001</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05211685209538952</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03566805689718336</v>
+        <v>0.03658044187705328</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07152265924680042</v>
+        <v>0.07163393848472924</v>
       </c>
     </row>
     <row r="18">
@@ -8180,19 +8180,19 @@
         <v>240779</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>232687</v>
+        <v>232465</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>247306</v>
+        <v>246896</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.926051645000473</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8949276503941159</v>
+        <v>0.8940750410453785</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9511536616060683</v>
+        <v>0.9495780658926137</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>241</v>
@@ -8201,19 +8201,19 @@
         <v>122216</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>117616</v>
+        <v>117174</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>125400</v>
+        <v>125560</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.933801826190822</v>
+        <v>0.9338018261908219</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8986541653708997</v>
+        <v>0.8952772509072121</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9581294192260937</v>
+        <v>0.959354857612241</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>584</v>
@@ -8222,19 +8222,19 @@
         <v>362995</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>354429</v>
+        <v>353747</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>370503</v>
+        <v>369941</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9286466308492503</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9067334527077489</v>
+        <v>0.9049887224645613</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9478535384199877</v>
+        <v>0.9464163115961752</v>
       </c>
     </row>
     <row r="19">
@@ -8329,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4812</v>
+        <v>5502</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01238100438180323</v>
@@ -8338,7 +8338,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04774425871153988</v>
+        <v>0.05458414651493961</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>13</v>
@@ -8347,19 +8347,19 @@
         <v>6797</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3668</v>
+        <v>3623</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10823</v>
+        <v>11740</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.03099033846483179</v>
+        <v>0.0309903384648318</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01672310594864402</v>
+        <v>0.01651740508241215</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.049345495207208</v>
+        <v>0.05352780140493686</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -8368,19 +8368,19 @@
         <v>8045</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4513</v>
+        <v>4723</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13096</v>
+        <v>13529</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02513098433981514</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01409747912268</v>
+        <v>0.01475424737250383</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04090912244493425</v>
+        <v>0.042261960713627</v>
       </c>
     </row>
     <row r="21">
@@ -8397,19 +8397,19 @@
         <v>4476</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1996</v>
+        <v>2129</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8265</v>
+        <v>8415</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.04440437267673049</v>
+        <v>0.0444043726767305</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01980286740478655</v>
+        <v>0.02112006921175458</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08200007410219404</v>
+        <v>0.08348973545536213</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>50</v>
@@ -8418,19 +8418,19 @@
         <v>23677</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17642</v>
+        <v>17826</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>31584</v>
+        <v>31492</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1079532960457841</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08043600452683498</v>
+        <v>0.08127383244216405</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1440043062407914</v>
+        <v>0.1435829698079094</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>59</v>
@@ -8439,19 +8439,19 @@
         <v>28153</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>21493</v>
+        <v>20889</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>36410</v>
+        <v>36300</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.08794421648272682</v>
+        <v>0.08794421648272681</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06713990759011106</v>
+        <v>0.0652530022728421</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1137381800871584</v>
+        <v>0.1133951214378874</v>
       </c>
     </row>
     <row r="22">
@@ -8468,19 +8468,19 @@
         <v>95069</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>90541</v>
+        <v>90714</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>98113</v>
+        <v>97918</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9432146229414663</v>
+        <v>0.9432146229414664</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8982830534302194</v>
+        <v>0.9000001414795832</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9734138461411443</v>
+        <v>0.9714798683811509</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>378</v>
@@ -8489,19 +8489,19 @@
         <v>188853</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>180432</v>
+        <v>180652</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>195359</v>
+        <v>195921</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8610563654893841</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8226616044426609</v>
+        <v>0.8236667719581786</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8907222036177092</v>
+        <v>0.8932842611106969</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>515</v>
@@ -8510,19 +8510,19 @@
         <v>283922</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>275068</v>
+        <v>273831</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>291580</v>
+        <v>291245</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.886924799177458</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8592653917467808</v>
+        <v>0.8554018354896785</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9108445937181463</v>
+        <v>0.9097984398912853</v>
       </c>
     </row>
     <row r="23">
@@ -8627,19 +8627,19 @@
         <v>11119</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6503</v>
+        <v>6538</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16968</v>
+        <v>16901</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03215682104366017</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01880630033058404</v>
+        <v>0.01890832429807799</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04907042186395158</v>
+        <v>0.04887655442824747</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>19</v>
@@ -8648,19 +8648,19 @@
         <v>11119</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6569</v>
+        <v>6457</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>17384</v>
+        <v>17068</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03185500735960104</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01881830516097949</v>
+        <v>0.01849854468393538</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04980187102578049</v>
+        <v>0.04889673980816622</v>
       </c>
     </row>
     <row r="25">
@@ -8690,19 +8690,19 @@
         <v>35793</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>27817</v>
+        <v>27629</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>45431</v>
+        <v>45969</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1035120344260533</v>
+        <v>0.1035120344260534</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08044768515739048</v>
+        <v>0.07990316561481671</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1313864174751163</v>
+        <v>0.1329415783841358</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>63</v>
@@ -8711,19 +8711,19 @@
         <v>35793</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>27143</v>
+        <v>28498</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>45054</v>
+        <v>46764</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1025405034276327</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07775968492010141</v>
+        <v>0.08164214801507812</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1290739682965297</v>
+        <v>0.1339722280971649</v>
       </c>
     </row>
     <row r="26">
@@ -8753,19 +8753,19 @@
         <v>298871</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>288555</v>
+        <v>287920</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>308854</v>
+        <v>307762</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8643311445302864</v>
+        <v>0.8643311445302866</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8344985928997379</v>
+        <v>0.832659540242169</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8932010305459704</v>
+        <v>0.8900443708138873</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>560</v>
@@ -8774,19 +8774,19 @@
         <v>302147</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>293001</v>
+        <v>291221</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>312175</v>
+        <v>311295</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8656044892127663</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8394018260276874</v>
+        <v>0.8343038736846154</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8943318391872873</v>
+        <v>0.8918130590430228</v>
       </c>
     </row>
     <row r="27">
@@ -8878,19 +8878,19 @@
         <v>7434</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3804</v>
+        <v>3771</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>13778</v>
+        <v>13563</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01059460364946707</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005420855583586616</v>
+        <v>0.005374679747384417</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0196365304232951</v>
+        <v>0.01933003784136015</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>41</v>
@@ -8899,19 +8899,19 @@
         <v>22314</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>16011</v>
+        <v>15987</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>29879</v>
+        <v>30873</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02524516321405855</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01811407194354959</v>
+        <v>0.01808729486473471</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03380335285421637</v>
+        <v>0.0349274841249324</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>52</v>
@@ -8920,19 +8920,19 @@
         <v>29748</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>22254</v>
+        <v>22707</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>38982</v>
+        <v>38509</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01876183326414422</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01403558692271261</v>
+        <v>0.01432090271325337</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02458568239969048</v>
+        <v>0.02428712103930268</v>
       </c>
     </row>
     <row r="29">
@@ -8949,19 +8949,19 @@
         <v>29353</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>21292</v>
+        <v>22208</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>38998</v>
+        <v>39238</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.04183314070449842</v>
+        <v>0.04183314070449843</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03034543388577442</v>
+        <v>0.03165109829313066</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0555787376813657</v>
+        <v>0.05592135137511565</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>135</v>
@@ -8970,19 +8970,19 @@
         <v>70537</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>58722</v>
+        <v>58860</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>83219</v>
+        <v>83921</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.07980204621586712</v>
+        <v>0.0798020462158671</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06643450822940337</v>
+        <v>0.06659050862556649</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09414894544235854</v>
+        <v>0.09494317651527129</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>181</v>
@@ -8991,19 +8991,19 @@
         <v>99890</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>86160</v>
+        <v>85601</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>115867</v>
+        <v>115902</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06299962026196204</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05434001729927328</v>
+        <v>0.05398785252393795</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07307595638755222</v>
+        <v>0.073097950439703</v>
       </c>
     </row>
     <row r="30">
@@ -9020,19 +9020,19 @@
         <v>664876</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>654032</v>
+        <v>653432</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>673413</v>
+        <v>673225</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9475722556460346</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9321167796738155</v>
+        <v>0.9312622301714987</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.959739088583363</v>
+        <v>0.9594700591446438</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1496</v>
@@ -9041,19 +9041,19 @@
         <v>791052</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>776717</v>
+        <v>775057</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>805390</v>
+        <v>803619</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.8949527905700744</v>
+        <v>0.8949527905700743</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8787340512180857</v>
+        <v>0.876856233280522</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9111730929112771</v>
+        <v>0.9091703902011912</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2446</v>
@@ -9062,19 +9062,19 @@
         <v>1455929</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1437881</v>
+        <v>1436855</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1471583</v>
+        <v>1471724</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.9182385464738936</v>
+        <v>0.9182385464738937</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9068561634975656</v>
+        <v>0.9062089146456686</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9281118093138967</v>
+        <v>0.9282006065499148</v>
       </c>
     </row>
     <row r="31">
